--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_11-27.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_11-27.xlsx
@@ -86,6 +86,12 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>LAGAR 15 ML DROPS</t>
   </si>
   <si>
@@ -123,9 +129,6 @@
   </si>
   <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>1:1</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -1055,17 +1058,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>70</v>
+        <v>86.5</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1073,7 +1076,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1081,17 +1084,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1099,7 +1102,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1107,17 +1110,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1139,11 +1142,11 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1159,17 +1162,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1177,7 +1180,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1185,13 +1188,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
@@ -1211,13 +1214,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
@@ -1229,7 +1232,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1237,17 +1240,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1269,11 +1272,11 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1289,17 +1292,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1307,7 +1310,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1315,17 +1318,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>102.59999999999999</v>
+        <v>17</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1341,13 +1344,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>40</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
@@ -1367,7 +1370,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -1377,7 +1380,7 @@
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1393,17 +1396,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1411,7 +1414,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1419,17 +1422,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1437,7 +1440,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1445,17 +1448,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1471,17 +1474,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1489,7 +1492,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1497,17 +1500,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1515,7 +1518,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1523,51 +1526,77 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="K34" s="11">
-        <v>2211.7199999999998</v>
-      </c>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="12">
+    <row r="34" ht="24.75" customHeight="1">
+      <c r="A34" s="6">
+        <v>31</v>
+      </c>
+      <c t="s" r="B34" s="7">
+        <v>54</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c t="s" r="H34" s="8">
         <v>55</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c t="s" r="F35" s="13">
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="9">
+        <v>30</v>
+      </c>
+      <c r="M34" s="9"/>
+      <c r="N34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="26.25" customHeight="1">
+      <c r="K35" s="11">
+        <v>2298.2199999999998</v>
+      </c>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="12">
         <v>56</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
-      <c t="s" r="I35" s="15">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c t="s" r="F36" s="13">
         <v>57</v>
       </c>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c t="s" r="I36" s="15">
+        <v>58</v>
+      </c>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="101">
+  <mergeCells count="104">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1665,10 +1694,13 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:N36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
